--- a/biology/Botanique/Amyema_scandens/Amyema_scandens.xlsx
+++ b/biology/Botanique/Amyema_scandens/Amyema_scandens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amyema scandens est une espèce de plantes à fleurs de la famille des Loranthaceae et du genre Amyema. C'est une plante parasite originaire de Nouvelle-Guinée, de Nouvelle-Calédonie et de Vanuatu.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente comme une plante hémiparasite ligneuse qui se développe sur les tiges d'hôtes variés à l'aide de suçoirs[2],[3].
-Feuilles
-Les feuilles sont mates des deux côtés et disposées en verticilles de 4 à 8[2].
-Fleurs
-Les fleurs sont plus ou moins cylindriques de rose pâle à rouge vif, disposées en inflorescences selon des configurations variées[2].
-Fruits
-Les fruits sont des drupes ellipsoïdes ou obovoïdes[2]. Leur intérieur est gluant. Leurs graines sont dispersées par les oiseaux qui les consomment et dont les déjections se collent aux branches des arbres[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme une plante hémiparasite ligneuse qui se développe sur les tiges d'hôtes variés à l'aide de suçoirs,.
 </t>
         </is>
       </c>
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est présente en Nouvelle-Calédonie, en Nouvelle-Guinée et au Vanuatu[4].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont mates des deux côtés et disposées en verticilles de 4 à 8.
 </t>
         </is>
       </c>
@@ -577,17 +594,163 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont plus ou moins cylindriques de rose pâle à rouge vif, disposées en inflorescences selon des configurations variées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des drupes ellipsoïdes ou obovoïdes. Leur intérieur est gluant. Leurs graines sont dispersées par les oiseaux qui les consomment et dont les déjections se collent aux branches des arbres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Nouvelle-Calédonie, en Nouvelle-Guinée et au Vanuatu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des sous-espèces
-Liste des sous-espèces selon GBIF       (24 mai 2021)[5] :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon GBIF       (24 mai 2021) :
 Amyema scandens subsp. crassifolium Barlow
-Amyema scandens subsp. scandens
-Synonymes
-Amyema scandens a pour synonymes[6] :
+Amyema scandens subsp. scandens</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amyema_scandens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyema scandens a pour synonymes :
 Amyema acutifolia (Tiegh.) Danser
 Amyema glaucescens Danser
 Amyema grandifolia (Tiegh.) Danser
